--- a/medicine/Autisme/Astrid_et_Raphaëlle/Astrid_et_Raphaëlle.xlsx
+++ b/medicine/Autisme/Astrid_et_Raphaëlle/Astrid_et_Raphaëlle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
+          <t>Astrid_et_Raphaëlle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrid et Raphaëlle est une série télévisée policière franco-belge composée d'épisodes de 52 minutes, créée par Alexandre de Seguins et Laurent Burtin et diffusée depuis le 12 avril 2019 sur France 2.
-La série est une coproduction de France Télévisions, JLA Productions, Be-Films et la RTBF (télévision belge)[1],[2].
+La série est une coproduction de France Télévisions, JLA Productions, Be-Films et la RTBF (télévision belge),.
 Elle met en scène un duo d'enquêtrices : le commandant Raphaëlle Coste, une femme impulsive incarnée par Lola Dewaere, et la documentaliste Astrid Nielsen, autiste, interprétée par Sara Mortensen.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
+          <t>Astrid_et_Raphaëlle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astrid Nielsen, trente ans, est une femme autiste qui travaille discrètement comme documentaliste pour la police judiciaire, et connaît chaque dossier dont elle s'est occupée[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrid Nielsen, trente ans, est une femme autiste qui travaille discrètement comme documentaliste pour la police judiciaire, et connaît chaque dossier dont elle s'est occupée. 
 Elle rencontre Raphaëlle Coste, alors responsable d'une enquête sur des suicides de médecins. Ces deux femmes solitaires s'apprivoisent, Astrid offrant à Raphaëlle une méthodologie, Raphaëlle apportant en retour à Astrid une aide comportementale.
-Astrid utilise sa mémoire et son sens du détail pour résoudre des affaires criminelles[4].
+Astrid utilise sa mémoire et son sens du détail pour résoudre des affaires criminelles.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
+          <t>Astrid_et_Raphaëlle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,87 +562,474 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-DPJ
-Daniel Njo Lobé (pilote) / Jean-Louis Garçon (A partir de la première saison) : commissaire Carl Bachert
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DPJ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Daniel Njo Lobé (pilote) / Jean-Louis Garçon (A partir de la première saison) : commissaire Carl Bachert
 Lola Dewaere : commandant Raphaëlle Coste
 Chloé Chevallier : Raphaëlle enfant
 Benoît Michel : capitaine Nicolas Perran
 Meledeen Yacoubi : lieutenant Arthur Enghien (saisons 1 à 3)
-Sophia Yamna : Norah Mansour (depuis la saison 4)
-Documentation criminelle
-Sara Mortensen : Astrid Nielsen, documentaliste
+Sophia Yamna : Norah Mansour (depuis la saison 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Documentation criminelle</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sara Mortensen : Astrid Nielsen, documentaliste
 Sylvie Filloux : Astrid Nielsen, adolescente
 Geoffroy Thiebaut : Alain Gaillard, directeur de la documentation criminelle et tuteur d'Astrid (principal saison 1, invité saisons 2 et 3)
-Laurent Lévy : Gilles, employé de la documentation criminelle (récurrent saison 1, invité saisons 2 et 3)
-Médecin légiste
-Husky Kihal : Henry Fournier, le médecin légiste
-Police scientifique
-Bruce Tessore : Julien Frédéric, technicien principal de la scientifique
-Procureur
-Hubert Delattre : procureur Mathias Forest (saison 2)
-Famille d'Astrid Nielsen
-Aliocha Itovich : Angus Nielsen, père d'Astrid (récurrent saison 1, invité saisons 2 et 3)
+Laurent Lévy : Gilles, employé de la documentation criminelle (récurrent saison 1, invité saisons 2 et 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Médecin légiste</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Husky Kihal : Henry Fournier, le médecin légiste</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Police scientifique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bruce Tessore : Julien Frédéric, technicien principal de la scientifique</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Procureur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hubert Delattre : procureur Mathias Forest (saison 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Famille d'Astrid Nielsen</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aliocha Itovich : Angus Nielsen, père d'Astrid (récurrent saison 1, invité saisons 2 et 3)
 Elisabeth Mortensen : Mathilde Nielsen, mère d'Astrid
-Handy Gedio : Niels, le demi-frère d'Astrid (saison 4)
-Famille de Raphaëlle Coste
-Timi-Joy Marbot : Théo Coste, fils de Raphaëlle
+Handy Gedio : Niels, le demi-frère d'Astrid (saison 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Famille de Raphaëlle Coste</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Timi-Joy Marbot : Théo Coste, fils de Raphaëlle
 Michel Bompoil : Philippe Coste, père de Raphaëlle
-Octave Balekdjian : Benjamin Coste, grand frère de Raphaëlle, décédé
-Groupe de parole des autistes
-Jean-Benoît Souilh : William Thomas, animateur du groupe
+Octave Balekdjian : Benjamin Coste, grand frère de Raphaëlle, décédé</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Groupe de parole des autistes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jean-Benoît Souilh : William Thomas, animateur du groupe
 Hugo Horiot : Paul Thomas, médecin et frère de William (saison 1, épisode 7/saison 4, épisode 5)
 Eléa Folcher : Camille Berezin, petite amie de William
 Clément Lagouarde : Max
 Lizzy Brynn : Alice, l'homme déguisé
 Clément Langlais : Benoît
-Angélique Bridoux : Camille (depuis la saison 3)
-Autres personnages
-Kengo Saito : Tetsuo Tanaka, neveu de l'épicier puis petit-ami d'Astrid (depuis la saison 2)
+Angélique Bridoux : Camille (depuis la saison 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres personnages</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Kengo Saito : Tetsuo Tanaka, neveu de l'épicier puis petit-ami d'Astrid (depuis la saison 2)
 Akihiro Nishida : Apu Tanaka, épicier d'Astrid
 Valérie Kaprisky : Anne Langlais (saison 3)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Genèse et développement
-L'idée de cette série remonte à 2017, ses producteurs souhaitant créer un polar dont l'un des personnages principaux serait autiste[5]. Le scénariste Alexandre de Seguins a rencontré Jean-Sébastien Bouilloux, travaillant pour le producteur Jean-Luc Azoulay ; le pilote est accepté pour diffusion sur France 2[6], en remplacement de la série Caïn. Hippolyte Dard et Elsa Bennet sont les réalisateurs de l'épisode pilote[3]. Six autres épisodes seront commandés si le pilote rencontre son public[7].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de cette série remonte à 2017, ses producteurs souhaitant créer un polar dont l'un des personnages principaux serait autiste. Le scénariste Alexandre de Seguins a rencontré Jean-Sébastien Bouilloux, travaillant pour le producteur Jean-Luc Azoulay ; le pilote est accepté pour diffusion sur France 2, en remplacement de la série Caïn. Hippolyte Dard et Elsa Bennet sont les réalisateurs de l'épisode pilote. Six autres épisodes seront commandés si le pilote rencontre son public.
 Le 25 avril 2019, Sara Mortensen annonce sur son compte Instagram que, à la suite du succès du pilote, France 2 a commandé six épisodes de 52 minutes : « Diffusé le 12 avril dernier, le pilote de 90 minutes avait réalisé de solides audiences. Le nouveau duo d'héroïnes de France 2 aura désormais droit à une saison entière. Après avoir réuni cinq millions de téléspectateurs en avril le soir de la diffusion du pilote (20,7 % de PDA), Astrid et Raphaëlle vient d'obtenir le feu vert de France 2 pour une saison 1 constituée de six épisodes de 52 minutes. »
-Tournage
-La « Documentation criminelle » où travaille Astrid est en fait le bâtiment des Archives départementales du Val-de-Marne.
-Le tournage de la saison 1 a lieu entre octobre 2019 et janvier 2020 pour une diffusion au printemps 2020[8],[9].
-Le tournage de la saison 2 a lieu du 3 août au 8 décembre 2020. Les acteurs invités sont Pierre Palmade, puis Hubert Delattre, Alysson Paradis, Gérard Majax, Ingrid Juveneton, Kentaro et Richard Gotainer[10].
-Le tournage des quatre premiers épisodes de la saison 3 a lieu du 30 août au 28 octobre 2021, les acteurs invités sont Valérie Kaprisky, Stéphane Guillon, Bruno Wolkowitch et Michaël Cohen[11],[12]. Les quatre derniers épisodes sont tournés du 2 novembre au 21 décembre 2021[13].
-Le tournage de la saison 4 se déroule du 16 août au 6 décembre 2022 à Paris et dans la région parisienne. Les invités annoncés sont Tom Villa, Philippe Chevallier, Stomy Bugsy, Xavier Gallais, Jean-Baptiste Guégan et Hélène Médigue[14].
-L'épisode spécial Crossover avec Alexandra Ehle est tourné du 20 septembre au 16 octobre 2023 à Bordeaux et ses environs[15],[16].
-Le tournage de la saison 5 a lieu du 3 novembre au 22 décembre 2023 pour les épisodes 1 à 4 et reprend du 4 mars au 25 avril 2024 pour les épisodes suivants. Les invités annoncés sont Julie Arnold, Michel Bompoil, Aurélien Wiik et Lorie Pester[17],[18].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « Documentation criminelle » où travaille Astrid est en fait le bâtiment des Archives départementales du Val-de-Marne.
+Le tournage de la saison 1 a lieu entre octobre 2019 et janvier 2020 pour une diffusion au printemps 2020,.
+Le tournage de la saison 2 a lieu du 3 août au 8 décembre 2020. Les acteurs invités sont Pierre Palmade, puis Hubert Delattre, Alysson Paradis, Gérard Majax, Ingrid Juveneton, Kentaro et Richard Gotainer.
+Le tournage des quatre premiers épisodes de la saison 3 a lieu du 30 août au 28 octobre 2021, les acteurs invités sont Valérie Kaprisky, Stéphane Guillon, Bruno Wolkowitch et Michaël Cohen,. Les quatre derniers épisodes sont tournés du 2 novembre au 21 décembre 2021.
+Le tournage de la saison 4 se déroule du 16 août au 6 décembre 2022 à Paris et dans la région parisienne. Les invités annoncés sont Tom Villa, Philippe Chevallier, Stomy Bugsy, Xavier Gallais, Jean-Baptiste Guégan et Hélène Médigue.
+L'épisode spécial Crossover avec Alexandra Ehle est tourné du 20 septembre au 16 octobre 2023 à Bordeaux et ses environs,.
+Le tournage de la saison 5 a lieu du 3 novembre au 22 décembre 2023 pour les épisodes 1 à 4 et reprend du 4 mars au 25 avril 2024 pour les épisodes suivants. Les invités annoncés sont Julie Arnold, Michel Bompoil, Aurélien Wiik et Lorie Pester,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Astrid et Raphaëlle
 Création : Alexandre de Seguins et Laurent Burtin
 Réalisation : Elsa Bennett, Frédéric Berthe, Hippolyte Dard, Éric Le Roux, Chloé Micout (saison 3 épisodes 1 à 4), Julien Seri (saison 3 épisodes 5 à 8), François Ryckelynck (saison 4 épisodes 1 à 4), Corinne Bergas (saison 4 épisodes 5 à 8), Julien Seri (saison 5 épisodes 1 à 4) et David Ferrier (saison 5 épisodes 5 à 8)
@@ -637,7 +1038,7 @@
 Direction artistique : Olivier Geyer
 Décors : Jiri Hanibal Jr
 Production : Jean-Luc Azoulay et Jean-Sébastien Bouilloux
-Sociétés de production : JLA Productions, France Télévisions, Be-Films, RTBF (télévision belge)[1],[2]
+Sociétés de production : JLA Productions, France Télévisions, Be-Films, RTBF (télévision belge),
 Société de distribution : France Télévisions
 Pays de production :  France /  Belgique
 Langue originale : français
@@ -651,37 +1052,108 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite des bonnes audiences réalisées par le pilote, France 2 commande une première saison de huit épisodes de 52 minutes (initialement six)[9]. Pour une raison inexpliquée, les épisodes 5 et 7 ont changé de nom. Initialement intitulés respectivement L'Esprit de famille et La Nuit du mort-vivant, ils ont été diffusés sous les titres Fulcanelli et La Mort et Compagnie[réf. nécessaire].
-Pilote
-Puzzle
-Première saison (2020)
-La saison 1 est diffusée sur France 2 avec deux épisodes à la suite du 13 mars au 3 avril 2020[19].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des bonnes audiences réalisées par le pilote, France 2 commande une première saison de huit épisodes de 52 minutes (initialement six). Pour une raison inexpliquée, les épisodes 5 et 7 ont changé de nom. Initialement intitulés respectivement L'Esprit de famille et La Nuit du mort-vivant, ils ont été diffusés sous les titres Fulcanelli et La Mort et Compagnie[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pilote</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Première saison (2020)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison 1 est diffusée sur France 2 avec deux épisodes à la suite du 13 mars au 3 avril 2020.
 Hantise (1/2)
 Hantise (2/2)
 Chaînon manquant
@@ -690,8 +1162,43 @@
 L'Homme qui n'existait pas
 La Mort et Compagnie (initialement : La Nuit du mort-vivant)
 Invisible
-Deuxième saison (2021)
-La saison 2 est diffusée sur France 2 avec deux épisodes à la suite du 21 mai au 11 juin 2021[20].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison 2 est diffusée sur France 2 avec deux épisodes à la suite du 21 mai au 11 juin 2021.
 L'Étourneau
 Irezumi
 Le Paradoxe de Fermi
@@ -700,8 +1207,43 @@
 Golem
 Le Livre
 En garde à vue
-Troisième saison (2022)
-La saison 3 est diffusée sur France 2 avec deux épisodes à la suite à partir du 26 août 2022[21].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Troisième saison (2022)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison 3 est diffusée sur France 2 avec deux épisodes à la suite à partir du 26 août 2022.
 Plan global
 Memento Mori
 Natifs
@@ -710,129 +1252,278 @@
 Sang d'or
 Les Fleurs du mal
 En souterrain
-Quatrième saison (2023)
-La saison 4 est diffusée sur France 2 à partir du 10 novembre 2023[22].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2023)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison 4 est diffusée sur France 2 à partir du 10 novembre 2023.
 L'Œil du dragon
 Les 1001 nuits
-30 000 pieds ou 10 000 mètres[23],[24]
+30 000 pieds ou 10 000 mètres,
 Immortel
 Sacrifice du fou
 La Passagère du temps
 L'Ankou
 Coupable
-Épisode spécial : Œil pour œil
-Crossover avec Alexandra Ehle. La diffusion commence par la Belgique le 22 février 2024 sur La Une.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Épisode spécial : Œil pour œil</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossover avec Alexandra Ehle. La diffusion commence par la Belgique le 22 février 2024 sur La Une.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences en France
-En France, le pilote attire 4,221 millions de téléspectateurs, soit 19,5 % de parts de marché, ce qui assure théoriquement la diffusion de huit autres épisodes sur France 2[25]. En Belgique, le pilote a réuni 236 000 téléspectateurs[26], lors de sa diffusion sur La Une.
-Les épisodes du tableau ci-dessous sont présentés dans l'ordre de diffusion sur France 2[27].
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Audiences en France</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le pilote attire 4,221 millions de téléspectateurs, soit 19,5 % de parts de marché, ce qui assure théoriquement la diffusion de huit autres épisodes sur France 2. En Belgique, le pilote a réuni 236 000 téléspectateurs, lors de sa diffusion sur La Une.
+Les épisodes du tableau ci-dessous sont présentés dans l'ordre de diffusion sur France 2.
 Le plus haut chiffre d'audience
 Le plus bas chiffre d'audience
-Le pilote Puzzle est rediffusé sur France 2 le vendredi 10 avril 2020 à 21 h 5 et rassemble 4 885 000 spectateurs soit 18,3 % de part de marché[49].
-Critiques
-D'après Julia Fernandez d'Allociné, la scène du groupe de paroles entre personnes autistes est l'une des plus réussies dans l'épisode pilote, la faiblesse de cet épisode résidant dans une certaine prévisibilité du dénouement de l'enquête policière[50].
-Lors de la diffusion du pilote, le magazine belge Moustique constate une forte ressemblance avec la série américaine Good Doctor : « Comme Shawn Murphy, Astrid vit une situation familiale difficile mais peut compter sur l'aide de son tuteur. Comme le jeune médecin, elle est sortie de l'isolement provoqué par son atypie neurologique — grâce à son job —, mais doit régulièrement faire face à l'incompréhension de ceux qui ne savent pas[26]. »
-Lors du démarrage de la première saison, ce magazine insiste sur la difficulté des scénaristes d'inventer des histoires autour de « personnages en situation de handicap » : « Ils doivent slalomer entre l'intérêt de l'histoire, le respect du politiquement correct et le souci d'éviter la caricature, dans laquelle il est facile de tomber pour le plaisir d'un moment d'émotion ou d'une scène drôle. » Le journaliste estime le pari plutôt réussi : « Sans éviter tous les écueils, la série tient vraiment la route et arrive à ne traiter l'autisme d'Astrid que comme un élément et non une définition de la jeune femme[51]. »
+Le pilote Puzzle est rediffusé sur France 2 le vendredi 10 avril 2020 à 21 h 5 et rassemble 4 885 000 spectateurs soit 18,3 % de part de marché.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Julia Fernandez d'Allociné, la scène du groupe de paroles entre personnes autistes est l'une des plus réussies dans l'épisode pilote, la faiblesse de cet épisode résidant dans une certaine prévisibilité du dénouement de l'enquête policière.
+Lors de la diffusion du pilote, le magazine belge Moustique constate une forte ressemblance avec la série américaine Good Doctor : « Comme Shawn Murphy, Astrid vit une situation familiale difficile mais peut compter sur l'aide de son tuteur. Comme le jeune médecin, elle est sortie de l'isolement provoqué par son atypie neurologique — grâce à son job —, mais doit régulièrement faire face à l'incompréhension de ceux qui ne savent pas. »
+Lors du démarrage de la première saison, ce magazine insiste sur la difficulté des scénaristes d'inventer des histoires autour de « personnages en situation de handicap » : « Ils doivent slalomer entre l'intérêt de l'histoire, le respect du politiquement correct et le souci d'éviter la caricature, dans laquelle il est facile de tomber pour le plaisir d'un moment d'émotion ou d'une scène drôle. » Le journaliste estime le pari plutôt réussi : « Sans éviter tous les écueils, la série tient vraiment la route et arrive à ne traiter l'autisme d'Astrid que comme un élément et non une définition de la jeune femme. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après l'actrice Lola Dewaere, ce polar permet « un autre regard sur la différence »[5]. La série s'apparente à un remix de Sherlock Holmes au féminin[52]. 
-Le personnage d'Astrid Nielsen présente de nombreux points communs avec celui d'Extraordinary Attorney Woo[4].
-D'après l'un des scénaristes, Alexandre de Seguins, le personnage d'Astrid, qu'il veut le plus éloigné possible du cliché de l'autiste de génie, est inspiré de la lecture des ouvrages de Temple Grandin, qui lui ont « donné les éléments sur sa façon de voir le monde, les difficultés du quotidien »[53]. Il s'est aussi inspiré de sa rencontre et de discussions avec Josef Schovanec, ainsi que d'une dizaine de personnes autistes qui ont lu et commenté les textes des épisodes[53].
-L'un des trois coauteurs de la série a été diagnostiqué autiste[53]. Hugo Horiot, acteur autiste, joue un personnage neurotypique dans l'épisode 7 de la saison 1[53] que l'on retrouve dans l'épisode 5 de la saison 4.
-Placement de produit
-Un placement de produit pour la société Cofidis se retrouve dans chacun des épisodes de la saison 1 : une affiche de la société de crédit à la consommation apparaît très visiblement dans plusieurs scènes, placardée sur un mur ou dans une vitrine[54]. L'insertion des visuels Cofidis est réalisée en post-production par la société Mirriad[55].
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après l'actrice Lola Dewaere, ce polar permet « un autre regard sur la différence ». La série s'apparente à un remix de Sherlock Holmes au féminin. 
+Le personnage d'Astrid Nielsen présente de nombreux points communs avec celui d'Extraordinary Attorney Woo.
+D'après l'un des scénaristes, Alexandre de Seguins, le personnage d'Astrid, qu'il veut le plus éloigné possible du cliché de l'autiste de génie, est inspiré de la lecture des ouvrages de Temple Grandin, qui lui ont « donné les éléments sur sa façon de voir le monde, les difficultés du quotidien ». Il s'est aussi inspiré de sa rencontre et de discussions avec Josef Schovanec, ainsi que d'une dizaine de personnes autistes qui ont lu et commenté les textes des épisodes.
+L'un des trois coauteurs de la série a été diagnostiqué autiste. Hugo Horiot, acteur autiste, joue un personnage neurotypique dans l'épisode 7 de la saison 1 que l'on retrouve dans l'épisode 5 de la saison 4.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Placement de produit</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un placement de produit pour la société Cofidis se retrouve dans chacun des épisodes de la saison 1 : une affiche de la société de crédit à la consommation apparaît très visiblement dans plusieurs scènes, placardée sur un mur ou dans une vitrine. L'insertion des visuels Cofidis est réalisée en post-production par la société Mirriad.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Astrid_et_Raphaëlle</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrid_et_Rapha%C3%ABlle</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Commercialisation en DVD</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le 15 juillet 2020 sortie en DVD de la saison 1[56].
-Le 3 juin 2021 sortie en DVD de la saison 2[57].
-Le 5 octobre 2021 sortie du coffret des saisons 1 et 2[58].
-Le 23 septembre 2022 sortie en DVD de la saison 3 et du coffret des 3 saisons[59].
-Le 7 décembre 2023 sortie en DVD de la saison 4 et du coffret des 4 saisons[60].</t>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Le 15 juillet 2020 sortie en DVD de la saison 1.
+Le 3 juin 2021 sortie en DVD de la saison 2.
+Le 5 octobre 2021 sortie du coffret des saisons 1 et 2.
+Le 23 septembre 2022 sortie en DVD de la saison 3 et du coffret des 3 saisons.
+Le 7 décembre 2023 sortie en DVD de la saison 4 et du coffret des 4 saisons.</t>
         </is>
       </c>
     </row>
